--- a/TestData/LV_TMTT0029770_VerifyUserCanSearchProjectWithNameOnTimeRecordManager.xlsx
+++ b/TestData/LV_TMTT0029770_VerifyUserCanSearchProjectWithNameOnTimeRecordManager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20538EA8-35C8-45E3-BF69-516D8D543DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3698B1-462B-4E85-AEA2-337AD0732BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -109,12 +109,6 @@
     <t>Engagement No.</t>
   </si>
   <si>
-    <t>NewOppTimeRecord</t>
-  </si>
-  <si>
-    <t>Techno Coatings, Inc.</t>
-  </si>
-  <si>
     <t>126683</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>TFR time tracking</t>
+  </si>
+  <si>
+    <t>Arena Group Holdings</t>
+  </si>
+  <si>
+    <t>Arena Group</t>
   </si>
 </sst>
 </file>
@@ -567,18 +567,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -600,12 +600,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -625,17 +625,17 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -653,17 +653,17 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -681,17 +681,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -767,38 +767,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196518D5-9250-4074-B3D2-E15F20EB8D1E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -807,24 +807,24 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
